--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_9.xlsx
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_10</t>
+          <t>model_8_9_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9660691552909492</v>
+        <v>0.9665141544837281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7384524286837741</v>
+        <v>0.7059083673208946</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9288635706703007</v>
+        <v>0.9022938390884703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8846438673118766</v>
+        <v>0.8974398449036566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9524161879470214</v>
+        <v>0.897804700215602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.226895714806597</v>
+        <v>0.223920003155451</v>
       </c>
       <c r="H2" t="n">
-        <v>1.748969813707431</v>
+        <v>1.96659210189263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5931272759828758</v>
+        <v>0.07121136365102251</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6981808899270714</v>
+        <v>0.9636029800885852</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6456540829549736</v>
+        <v>0.5174071718698039</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9552883325295286</v>
+        <v>0.911960114003874</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4763357164926822</v>
+        <v>0.4732018630092774</v>
       </c>
       <c r="N2" t="n">
-        <v>1.019861957878469</v>
+        <v>1.01960147054611</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4966143140946426</v>
+        <v>0.4933470459804782</v>
       </c>
       <c r="P2" t="n">
-        <v>132.9665295463968</v>
+        <v>132.9929328393661</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.1934581628298</v>
+        <v>212.2198614557992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_11</t>
+          <t>model_8_9_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9646875807930368</v>
+        <v>0.9651630562847873</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7384207628947385</v>
+        <v>0.7058733326525394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.925766908366023</v>
+        <v>0.9235255498326085</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8753825989859824</v>
+        <v>0.8989637094942367</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9493992442826984</v>
+        <v>0.9007468533163189</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2361343098357023</v>
+        <v>0.2329548030330041</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74918156298452</v>
+        <v>1.966826378881242</v>
       </c>
       <c r="I3" t="n">
-        <v>0.618946886194998</v>
+        <v>0.05573701627488141</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7542337447770844</v>
+        <v>0.9492855245489068</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6865903154860413</v>
+        <v>0.5025112704118941</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9162952910989953</v>
+        <v>0.921665554573135</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4859365286081119</v>
+        <v>0.4826539164173477</v>
       </c>
       <c r="N3" t="n">
-        <v>1.020670684413832</v>
+        <v>1.02039235729671</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5066238526582469</v>
+        <v>0.503201492870578</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8867090527292</v>
+        <v>132.9138216452636</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.1136376691622</v>
+        <v>212.1407502616966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_9</t>
+          <t>model_8_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9674227333713933</v>
+        <v>0.9674957901579865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7383171936456889</v>
+        <v>0.7056969395482104</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9323592469984574</v>
+        <v>0.8784019590766899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8941032794153048</v>
+        <v>0.8962369219496213</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9555999180991627</v>
+        <v>0.8949688678630368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2178443319500133</v>
+        <v>0.2173558008816687</v>
       </c>
       <c r="H4" t="n">
-        <v>1.749874131029807</v>
+        <v>1.968005920382105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5639807332371357</v>
+        <v>0.08862452716039459</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6409287906527829</v>
+        <v>0.9749050314772206</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6024547619449593</v>
+        <v>0.5317647793188076</v>
       </c>
       <c r="L4" t="n">
-        <v>1.000467333869939</v>
+        <v>0.9043951291020802</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4667379692611405</v>
+        <v>0.4662143293397026</v>
       </c>
       <c r="N4" t="n">
-        <v>1.019069619489916</v>
+        <v>1.019026854541667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4866079708933784</v>
+        <v>0.4860620385364008</v>
       </c>
       <c r="P4" t="n">
-        <v>133.0479490897777</v>
+        <v>133.0524392655537</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.2748777062107</v>
+        <v>212.2793678819868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_12</t>
+          <t>model_8_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9633000455611893</v>
+        <v>0.9681872933104286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7382558405361703</v>
+        <v>0.7053107946892848</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92303637378784</v>
+        <v>0.8529387337245945</v>
       </c>
       <c r="E5" t="n">
-        <v>0.86633635481783</v>
+        <v>0.895287222512645</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9465427477209072</v>
+        <v>0.8922548931869414</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2454127643200788</v>
+        <v>0.212731716117209</v>
       </c>
       <c r="H5" t="n">
-        <v>1.750284399555663</v>
+        <v>1.970588072831774</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6417137660004008</v>
+        <v>0.1071829372274718</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8089851884727036</v>
+        <v>0.9838279236744796</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7253494772365521</v>
+        <v>0.5455054304509758</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8827600018119653</v>
+        <v>0.8983504225377156</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4953915262901444</v>
+        <v>0.4612284858041716</v>
       </c>
       <c r="N5" t="n">
-        <v>1.021482900159304</v>
+        <v>1.01862207220853</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5164813691661471</v>
+        <v>0.4808639373194434</v>
       </c>
       <c r="P5" t="n">
-        <v>132.8096274674276</v>
+        <v>133.0954469118329</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.0365560838606</v>
+        <v>212.3223755282659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_13</t>
+          <t>model_8_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9619242457220369</v>
+        <v>0.968653126606094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7379859881545789</v>
+        <v>0.7048061864222123</v>
       </c>
       <c r="D6" t="n">
-        <v>0.920637039372748</v>
+        <v>0.8267606413275427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8575298819273951</v>
+        <v>0.8945384396591576</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9438414861993134</v>
+        <v>0.8896758890973413</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2546127441794662</v>
+        <v>0.2096166867241291</v>
       </c>
       <c r="H6" t="n">
-        <v>1.752088903673921</v>
+        <v>1.973962390637195</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6617191373580174</v>
+        <v>0.1262623651774093</v>
       </c>
       <c r="J6" t="n">
-        <v>0.862285441666746</v>
+        <v>0.9908631059865766</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7620022895123817</v>
+        <v>0.5585627355819929</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8539993013706727</v>
+        <v>0.8934053171072925</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5045916608302858</v>
+        <v>0.4578391494008885</v>
       </c>
       <c r="N6" t="n">
-        <v>1.022288246406613</v>
+        <v>1.01834938930375</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5260731724805663</v>
+        <v>0.4773303098485789</v>
       </c>
       <c r="P6" t="n">
-        <v>132.7360230768369</v>
+        <v>133.1249494349414</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.96295169327</v>
+        <v>212.3518780513744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_8</t>
+          <t>model_8_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9687203109664151</v>
+        <v>0.9689452147156936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7379738065335562</v>
+        <v>0.7042263885279132</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9362828347674611</v>
+        <v>0.8005242542576849</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9037508264765721</v>
+        <v>0.893950173923857</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9589570811003162</v>
+        <v>0.8872416284095539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2091674245973067</v>
+        <v>0.2076634921902944</v>
       </c>
       <c r="H7" t="n">
-        <v>1.752170362229792</v>
+        <v>1.977839501826097</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5312663146553009</v>
+        <v>0.1453842801425499</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5825380242852973</v>
+        <v>0.9963901512127387</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5569021694702991</v>
+        <v>0.5708872156776442</v>
       </c>
       <c r="L7" t="n">
-        <v>1.052569814854996</v>
+        <v>0.8892703346411299</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4573482530821635</v>
+        <v>0.4557010996149717</v>
       </c>
       <c r="N7" t="n">
-        <v>1.018310061873318</v>
+        <v>1.018178410898131</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4768185150572704</v>
+        <v>0.4751012388569025</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1292405461562</v>
+        <v>133.1436726707654</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.3561691625892</v>
+        <v>212.3706012871985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_14</t>
+          <t>model_8_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.960574433568077</v>
+        <v>0.9691046869665367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.737635103385244</v>
+        <v>0.7036041133543196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9185341624736133</v>
+        <v>0.7747219412106506</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8489917879598217</v>
+        <v>0.893489092907956</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9412911654697874</v>
+        <v>0.8849566223251923</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2636389442683097</v>
+        <v>0.2065971005146048</v>
       </c>
       <c r="H8" t="n">
-        <v>1.754435271742139</v>
+        <v>1.982000658777231</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6792526804197627</v>
+        <v>0.1641898281273245</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9139613595884907</v>
+        <v>1.000722233594704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7966070200041266</v>
+        <v>0.5824560308610144</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8293759918499106</v>
+        <v>0.8857465005498497</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5134578310516937</v>
+        <v>0.4545295375601071</v>
       </c>
       <c r="N8" t="n">
-        <v>1.023078380350394</v>
+        <v>1.018085061287881</v>
       </c>
       <c r="O8" t="n">
-        <v>0.535316793923802</v>
+        <v>0.4738798009798945</v>
       </c>
       <c r="P8" t="n">
-        <v>132.6663494944998</v>
+        <v>133.1539695133806</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.8932781109329</v>
+        <v>212.3808981298137</v>
       </c>
     </row>
     <row r="9">
@@ -907,987 +907,987 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9699258635795629</v>
+        <v>0.9691645193969077</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737370475115016</v>
+        <v>0.7029638468596011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9406587410295918</v>
+        <v>0.7497130968949786</v>
       </c>
       <c r="E9" t="n">
-        <v>0.913581400251718</v>
+        <v>0.8931299065829016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9624940366270774</v>
+        <v>0.8828232732191178</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2011058887221282</v>
+        <v>0.2061970007772108</v>
       </c>
       <c r="H9" t="n">
-        <v>1.756204842203655</v>
+        <v>1.986282123775569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4947805170735209</v>
+        <v>0.1824170708154054</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5230395079352281</v>
+        <v>1.004096965359729</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5089100125043745</v>
+        <v>0.593257018087567</v>
       </c>
       <c r="L9" t="n">
-        <v>1.112353008355974</v>
+        <v>0.8826885903906019</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4484483122079157</v>
+        <v>0.4540891991417664</v>
       </c>
       <c r="N9" t="n">
-        <v>1.017604372538792</v>
+        <v>1.0180500374262</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4675396852745883</v>
+        <v>0.4734207164434588</v>
       </c>
       <c r="P9" t="n">
-        <v>133.2078474001514</v>
+        <v>133.1578465054348</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.4347760165844</v>
+        <v>212.3847751218679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_15</t>
+          <t>model_8_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9592621192641398</v>
+        <v>0.9691504658463835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.737224019222837</v>
+        <v>0.7023233686007673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9166936568417138</v>
+        <v>0.7257462891374125</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8407534337804545</v>
+        <v>0.892851560133023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9388883070007448</v>
+        <v>0.8808399361756067</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2724143960613898</v>
+        <v>0.2062909769342764</v>
       </c>
       <c r="H10" t="n">
-        <v>1.757184193429024</v>
+        <v>1.990565004841523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6945986023639213</v>
+        <v>0.1998848440536106</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9638231338908216</v>
+        <v>1.006712166831958</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8292108681273714</v>
+        <v>0.6032985054427844</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8083185153154594</v>
+        <v>0.8800041359608062</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5219333253025618</v>
+        <v>0.4541926649939169</v>
       </c>
       <c r="N10" t="n">
-        <v>1.023846564333186</v>
+        <v>1.0180582638948</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5441531075116213</v>
+        <v>0.4735285870511391</v>
       </c>
       <c r="P10" t="n">
-        <v>132.6008617142521</v>
+        <v>133.1569351949117</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.8277903306851</v>
+        <v>212.3838638113447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_16</t>
+          <t>model_8_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9579963528321175</v>
+        <v>0.9690828110909155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7367704048393164</v>
+        <v>0.7016955557942837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.915083986607851</v>
+        <v>0.7029886610464557</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8328442509699555</v>
+        <v>0.8926374138907652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.936629785570835</v>
+        <v>0.8790032022348985</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2808785820206416</v>
+        <v>0.2067433845956127</v>
       </c>
       <c r="H11" t="n">
-        <v>1.760217514900327</v>
+        <v>1.994763191969291</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7080198456008679</v>
+        <v>0.2164713286181535</v>
       </c>
       <c r="J11" t="n">
-        <v>1.011692633019745</v>
+        <v>1.008724175852621</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8598562393103063</v>
+        <v>0.612597752235387</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7903128032222966</v>
+        <v>0.8779398608572919</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5299797939739228</v>
+        <v>0.4546904272091207</v>
       </c>
       <c r="N11" t="n">
-        <v>1.0245875007812</v>
+        <v>1.018097866678489</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5525421310128086</v>
+        <v>0.4740475400343541</v>
       </c>
       <c r="P11" t="n">
-        <v>132.5396655909609</v>
+        <v>133.1525538854189</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.766594207394</v>
+        <v>212.3794825018519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_6</t>
+          <t>model_8_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9709926171369004</v>
+        <v>0.9689773309150759</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7364406120628229</v>
+        <v>0.7010893278009446</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9455035810348458</v>
+        <v>0.6815401377863985</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9235917452970395</v>
+        <v>0.8924739680380787</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9662151635855369</v>
+        <v>0.8773077376455592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1939725027722635</v>
+        <v>0.207448731017144</v>
       </c>
       <c r="H12" t="n">
-        <v>1.762422840715296</v>
+        <v>1.998817041352173</v>
       </c>
       <c r="I12" t="n">
-        <v>0.454384804469354</v>
+        <v>0.2321036958650086</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4624529448340259</v>
+        <v>1.010259829836216</v>
       </c>
       <c r="K12" t="n">
-        <v>0.45841887465169</v>
+        <v>0.6211817628506123</v>
       </c>
       <c r="L12" t="n">
-        <v>1.180551964776394</v>
+        <v>0.8767282859919768</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4404230951849182</v>
+        <v>0.4554654004610493</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016979931432058</v>
+        <v>1.018159611171663</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4591728181484325</v>
+        <v>0.4748555055020331</v>
       </c>
       <c r="P12" t="n">
-        <v>133.2800777365039</v>
+        <v>133.145742098552</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.5070063529369</v>
+        <v>212.372670714985</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_17</t>
+          <t>model_8_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9567841043488854</v>
+        <v>0.9688463212824594</v>
       </c>
       <c r="C13" t="n">
-        <v>0.736289483841723</v>
+        <v>0.7005105984982396</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9136758502996614</v>
+        <v>0.6614515798722999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8252903566319925</v>
+        <v>0.8923506470272715</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9345124232500748</v>
+        <v>0.8757473904606956</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2889848932099057</v>
+        <v>0.2083247930336946</v>
       </c>
       <c r="H13" t="n">
-        <v>1.763433435825672</v>
+        <v>2.002687006864164</v>
       </c>
       <c r="I13" t="n">
-        <v>0.719760722399985</v>
+        <v>0.246744877030041</v>
       </c>
       <c r="J13" t="n">
-        <v>1.057411785945518</v>
+        <v>1.011418491242389</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8885862541727517</v>
+        <v>0.629081684136215</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7749066054116039</v>
+        <v>0.8756454355917829</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5375731514965248</v>
+        <v>0.4564261090622387</v>
       </c>
       <c r="N13" t="n">
-        <v>1.025297109649433</v>
+        <v>1.018236299737097</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5604587534855648</v>
+        <v>0.475857113457316</v>
       </c>
       <c r="P13" t="n">
-        <v>132.4827617297321</v>
+        <v>133.1373138243847</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.7096903461651</v>
+        <v>212.3642424408178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_18</t>
+          <t>model_8_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9556304617162545</v>
+        <v>0.968699212800412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7357938613104283</v>
+        <v>0.6999632375957869</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9124429713585777</v>
+        <v>0.6427336759350489</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8181131739184222</v>
+        <v>0.8922589591033558</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9325329246228884</v>
+        <v>0.8743150507601282</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2966993068063439</v>
+        <v>0.209308508130517</v>
       </c>
       <c r="H14" t="n">
-        <v>1.766747665974572</v>
+        <v>2.00634721173923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7300403236511583</v>
+        <v>0.2603870818984465</v>
       </c>
       <c r="J14" t="n">
-        <v>1.100850931289246</v>
+        <v>1.012279944275883</v>
       </c>
       <c r="K14" t="n">
-        <v>0.915445627470202</v>
+        <v>0.6363335130871646</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7617061051585955</v>
+        <v>0.8746722275980062</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5447011169497855</v>
+        <v>0.4575024678955481</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0259724126539</v>
+        <v>1.018322412019271</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5678901711850934</v>
+        <v>0.4769792951145294</v>
       </c>
       <c r="P14" t="n">
-        <v>132.4300721760668</v>
+        <v>133.1278919998956</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.6570007924999</v>
+        <v>212.3548206163287</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_19</t>
+          <t>model_8_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9545390132471675</v>
+        <v>0.9685430290337823</v>
       </c>
       <c r="C15" t="n">
-        <v>0.735294164895111</v>
+        <v>0.6994491707895227</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9113626298753048</v>
+        <v>0.6253682246199778</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8113279083251153</v>
+        <v>0.8921916579879614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9306877003347889</v>
+        <v>0.8730026848417181</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3039978277447875</v>
+        <v>0.2103529096971307</v>
       </c>
       <c r="H15" t="n">
-        <v>1.770089138204689</v>
+        <v>2.00978477883978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7390480853162131</v>
+        <v>0.2730435761975254</v>
       </c>
       <c r="J15" t="n">
-        <v>1.141918039382531</v>
+        <v>1.012912271277498</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9404830623493722</v>
+        <v>0.6429779237375119</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7503724041399285</v>
+        <v>0.8737939411317526</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5513599801806325</v>
+        <v>0.4586424639053069</v>
       </c>
       <c r="N15" t="n">
-        <v>1.026611309318731</v>
+        <v>1.018413836663152</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5748325160094246</v>
+        <v>0.4781678231145406</v>
       </c>
       <c r="P15" t="n">
-        <v>132.3814694463556</v>
+        <v>133.1179372727901</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.6083980627886</v>
+        <v>212.3448658892232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_5</t>
+          <t>model_8_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9718585964581199</v>
+        <v>0.9683832863826594</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7350973362123586</v>
+        <v>0.6989693642290877</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9508257507421001</v>
+        <v>0.6093173179529647</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9337675868727513</v>
+        <v>0.8921436614269056</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9701198579478841</v>
+        <v>0.871802848510027</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1881816950638007</v>
+        <v>0.2114211095407371</v>
       </c>
       <c r="H16" t="n">
-        <v>1.771405332512567</v>
+        <v>2.012993247518715</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4100091723139686</v>
+        <v>0.2847419884668218</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4008647313465358</v>
+        <v>1.013363222518982</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4054369518302522</v>
+        <v>0.6490526054929018</v>
       </c>
       <c r="L16" t="n">
-        <v>1.257863894659674</v>
+        <v>0.8729957383207017</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4337991413820464</v>
+        <v>0.4598055127341745</v>
       </c>
       <c r="N16" t="n">
-        <v>1.016473016707442</v>
+        <v>1.018507344556492</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4522668689186978</v>
+        <v>0.4793803853398962</v>
       </c>
       <c r="P16" t="n">
-        <v>133.3406946395433</v>
+        <v>133.1078067092296</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.5676232559763</v>
+        <v>212.3347353256627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_20</t>
+          <t>model_8_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9535116670635333</v>
+        <v>0.9682240225024288</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7347988013355113</v>
+        <v>0.6985236861286688</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9104141579556319</v>
+        <v>0.5945307967848193</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8049437427935939</v>
+        <v>0.8921106781993843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9289724483135298</v>
+        <v>0.8707079497400549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3108676964052431</v>
+        <v>0.2124861078411814</v>
       </c>
       <c r="H17" t="n">
-        <v>1.773401636608671</v>
+        <v>2.015973499028375</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7469563338938096</v>
+        <v>0.2955188762926752</v>
       </c>
       <c r="J17" t="n">
-        <v>1.180557531435287</v>
+        <v>1.01367311612535</v>
       </c>
       <c r="K17" t="n">
-        <v>0.963756932664548</v>
+        <v>0.6545959962090127</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7406265538162049</v>
+        <v>0.87227253635904</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5575551061601384</v>
+        <v>0.4609621544565035</v>
       </c>
       <c r="N17" t="n">
-        <v>1.027212682694517</v>
+        <v>1.0186005721937</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5812913813275569</v>
+        <v>0.4805862676949231</v>
       </c>
       <c r="P17" t="n">
-        <v>132.3367757416097</v>
+        <v>133.0977573352394</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.5637043580427</v>
+        <v>212.3246859516725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_21</t>
+          <t>model_8_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9525491996548601</v>
+        <v>0.9680680729609713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7343144971112099</v>
+        <v>0.6981113756443676</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9095803398053712</v>
+        <v>0.5809449907439737</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7989628266630184</v>
+        <v>0.8920891489710426</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9273823584479731</v>
+        <v>0.8697101031016127</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3173037203987963</v>
+        <v>0.2135289431429895</v>
       </c>
       <c r="H18" t="n">
-        <v>1.776640181186592</v>
+        <v>2.018730621135412</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7539086126740251</v>
+        <v>0.3054206446708528</v>
       </c>
       <c r="J18" t="n">
-        <v>1.216756398797752</v>
+        <v>1.013875393789317</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9853325057358885</v>
+        <v>0.6596480192300853</v>
       </c>
       <c r="L18" t="n">
-        <v>0.732221313843008</v>
+        <v>0.8716077505952164</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5632971865709931</v>
+        <v>0.4620919206640487</v>
       </c>
       <c r="N18" t="n">
-        <v>1.027776078250814</v>
+        <v>1.018691859730163</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5872779139892468</v>
+        <v>0.481764130388862</v>
       </c>
       <c r="P18" t="n">
-        <v>132.2957917105686</v>
+        <v>133.087965780858</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.5227203270017</v>
+        <v>212.3148943972911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_22</t>
+          <t>model_8_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9516514500599459</v>
+        <v>0.9679173959009794</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7338464745089618</v>
+        <v>0.6977312076821325</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9088458151030567</v>
+        <v>0.5684921809362862</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7933836968102842</v>
+        <v>0.8920758865977992</v>
       </c>
       <c r="F19" t="n">
-        <v>0.925912385037084</v>
+        <v>0.8688014771074337</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3233069760737443</v>
+        <v>0.2145365213369592</v>
       </c>
       <c r="H19" t="n">
-        <v>1.77976985048287</v>
+        <v>2.021272806049391</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7600329942311412</v>
+        <v>0.3144966492893866</v>
       </c>
       <c r="J19" t="n">
-        <v>1.250523496869008</v>
+        <v>1.014000000293357</v>
       </c>
       <c r="K19" t="n">
-        <v>1.005278245550075</v>
+        <v>0.6642483247913721</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7249544708263868</v>
+        <v>0.8710078505661553</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5686008934865864</v>
+        <v>0.4631808732417167</v>
       </c>
       <c r="N19" t="n">
-        <v>1.028301590208812</v>
+        <v>1.018780060936012</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5928074106884237</v>
+        <v>0.4828994419322039</v>
       </c>
       <c r="P19" t="n">
-        <v>132.2583060335465</v>
+        <v>133.0785505849279</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.4852346499795</v>
+        <v>212.3054792013609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_23</t>
+          <t>model_8_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9508171407170209</v>
+        <v>0.9677736328757428</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7333983434483278</v>
+        <v>0.6973818291399088</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9081976211908567</v>
+        <v>0.557103254499058</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7881983312164804</v>
+        <v>0.8920696493580231</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9245567562425453</v>
+        <v>0.8679759450386062</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3288860064915247</v>
+        <v>0.2154978653486844</v>
       </c>
       <c r="H20" t="n">
-        <v>1.782766504948784</v>
+        <v>2.02360910196998</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7654375596988566</v>
+        <v>0.3227972618050146</v>
       </c>
       <c r="J20" t="n">
-        <v>1.281907378076842</v>
+        <v>1.014058602221466</v>
       </c>
       <c r="K20" t="n">
-        <v>1.023672468887849</v>
+        <v>0.6684279320132404</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7186557844217409</v>
+        <v>0.8704555912076803</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5734858380915127</v>
+        <v>0.4642174763499156</v>
       </c>
       <c r="N20" t="n">
-        <v>1.028789966409549</v>
+        <v>1.018864214902004</v>
       </c>
       <c r="O20" t="n">
-        <v>0.597900317498411</v>
+        <v>0.483980175380783</v>
       </c>
       <c r="P20" t="n">
-        <v>132.2240881461694</v>
+        <v>133.0696085501239</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.4510167626024</v>
+        <v>212.2965371665569</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_4</t>
+          <t>model_8_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9724414541770388</v>
+        <v>0.967637425843513</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7332268894747248</v>
+        <v>0.6970615195260033</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9566224155142058</v>
+        <v>0.5467039056296928</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9440723154358249</v>
+        <v>0.8920679113651681</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9741990838845582</v>
+        <v>0.8672258148618475</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1842841228135771</v>
+        <v>0.216408682400381</v>
       </c>
       <c r="H21" t="n">
-        <v>1.78391301845974</v>
+        <v>2.025751013833057</v>
       </c>
       <c r="I21" t="n">
-        <v>0.361677255482299</v>
+        <v>0.3303766386545539</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3384964428908638</v>
+        <v>1.014074931517117</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3500868491865814</v>
+        <v>0.6722257850858354</v>
       </c>
       <c r="L21" t="n">
-        <v>1.344962828573981</v>
+        <v>0.8699548974696441</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4292832664029395</v>
+        <v>0.4651974660296216</v>
       </c>
       <c r="N21" t="n">
-        <v>1.016131831701246</v>
+        <v>1.0189439458477</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4475587437925803</v>
+        <v>0.4850018852500125</v>
       </c>
       <c r="P21" t="n">
-        <v>133.3825531332287</v>
+        <v>133.0611732216332</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.6094817496617</v>
+        <v>212.2881018380663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_24</t>
+          <t>model_8_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9500445026413421</v>
+        <v>0.9675094970685685</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7329727318822764</v>
+        <v>0.6967684809132889</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9076243411341738</v>
+        <v>0.5372247648137024</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7833956760583718</v>
+        <v>0.8920701564875664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9233094989692351</v>
+        <v>0.8665456146395525</v>
       </c>
       <c r="G22" t="n">
-        <v>0.33405264086126</v>
+        <v>0.2172641427074927</v>
       </c>
       <c r="H22" t="n">
-        <v>1.78561257145073</v>
+        <v>2.027710564385597</v>
       </c>
       <c r="I22" t="n">
-        <v>0.770217502150279</v>
+        <v>0.3372853385507453</v>
       </c>
       <c r="J22" t="n">
-        <v>1.310974944526617</v>
+        <v>1.014053837490576</v>
       </c>
       <c r="K22" t="n">
-        <v>1.040596223338448</v>
+        <v>0.6756695880206607</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7131762709596684</v>
+        <v>0.8694986609840488</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5779728720807404</v>
+        <v>0.4661160185055784</v>
       </c>
       <c r="N22" t="n">
-        <v>1.029242242356287</v>
+        <v>1.019018830984252</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6025783738140011</v>
+        <v>0.4859595424065365</v>
       </c>
       <c r="P22" t="n">
-        <v>132.1929133821103</v>
+        <v>133.0532828363736</v>
       </c>
       <c r="Q22" t="n">
-        <v>211.4198419985433</v>
+        <v>212.2802114528066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_3</t>
+          <t>model_8_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9726309276175289</v>
+        <v>0.967389952456467</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7306801553016962</v>
+        <v>0.696500922154641</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9628707421719676</v>
+        <v>0.5285980230814291</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9544294361875552</v>
+        <v>0.8920747661460906</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9784287656373454</v>
+        <v>0.8659289618281506</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1830171130445745</v>
+        <v>0.2180635380790673</v>
       </c>
       <c r="H23" t="n">
-        <v>1.800943041601414</v>
+        <v>2.029499731036671</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3095794343674272</v>
+        <v>0.3435727828315274</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2758110562103371</v>
+        <v>1.01401052748693</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2926952452888822</v>
+        <v>0.6787916551592288</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44245205502255</v>
+        <v>0.869080328446544</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4278049941790938</v>
+        <v>0.4669727380469521</v>
       </c>
       <c r="N23" t="n">
-        <v>1.016020920419007</v>
+        <v>1.019088808318166</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4460175384597202</v>
+        <v>0.4868527342724404</v>
       </c>
       <c r="P23" t="n">
-        <v>133.3963512332162</v>
+        <v>133.0459375991614</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.6232798496492</v>
+        <v>212.2728662155945</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_2</t>
+          <t>model_8_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9722783014545449</v>
+        <v>0.9672787583593007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7272622044966572</v>
+        <v>0.6962570051231345</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9695124730433976</v>
+        <v>0.5207540436725162</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9647005600736431</v>
+        <v>0.8920810635678558</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9827601393776432</v>
+        <v>0.8653702161999425</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1853751258201429</v>
+        <v>0.2188070935188202</v>
       </c>
       <c r="H24" t="n">
-        <v>1.823798894372926</v>
+        <v>2.031130805349489</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2542014546641643</v>
+        <v>0.3492897249869459</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2136461565363179</v>
+        <v>1.013951360119505</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2339238056002411</v>
+        <v>0.6816205425532254</v>
       </c>
       <c r="L24" t="n">
-        <v>1.550838576009438</v>
+        <v>0.8687013765214421</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4305521174261518</v>
+        <v>0.4677682049036896</v>
       </c>
       <c r="N24" t="n">
-        <v>1.016227335733925</v>
+        <v>1.019153897545775</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4488816124307345</v>
+        <v>0.4876820658001126</v>
       </c>
       <c r="P24" t="n">
-        <v>133.3707475995824</v>
+        <v>133.0391295777111</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.5976762160155</v>
+        <v>212.2660581941441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_1</t>
+          <t>model_8_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9711806627975845</v>
+        <v>0.9671758059760909</v>
       </c>
       <c r="C25" t="n">
-        <v>0.722717742828051</v>
+        <v>0.6960349194803672</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9764229880094941</v>
+        <v>0.5136296747817536</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9746509192178671</v>
+        <v>0.8920886856074461</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9871025566926673</v>
+        <v>0.8648644953031611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1927150405733984</v>
+        <v>0.2194955365793965</v>
       </c>
       <c r="H25" t="n">
-        <v>1.854187730476218</v>
+        <v>2.032615893065284</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1965823844338784</v>
+        <v>0.3544821920650814</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1534226518077866</v>
+        <v>1.013879747317664</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1750025181208325</v>
+        <v>0.6841809696913728</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67048409020365</v>
+        <v>0.8683570177842767</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4389932124457033</v>
+        <v>0.4685035075422558</v>
       </c>
       <c r="N25" t="n">
-        <v>1.016869855923365</v>
+        <v>1.019214162355459</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4576820623407438</v>
+        <v>0.4884486717942888</v>
       </c>
       <c r="P25" t="n">
-        <v>133.2930853097032</v>
+        <v>133.0328467623278</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.5200139261362</v>
+        <v>212.2597753787608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_0</t>
+          <t>model_8_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9690585896666343</v>
+        <v>0.9670807736063333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7167109836519003</v>
+        <v>0.6958330361079971</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9833602345925642</v>
+        <v>0.5071679857893716</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9839052274114017</v>
+        <v>0.8920966717894422</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9912979493143722</v>
+        <v>0.8644068102248331</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2069053533713109</v>
+        <v>0.2201310184735493</v>
       </c>
       <c r="H26" t="n">
-        <v>1.894354956745721</v>
+        <v>2.03396588810591</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1387404290896283</v>
+        <v>0.3591916769158164</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09741192242862265</v>
+        <v>1.01380471321925</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1180761757591255</v>
+        <v>0.686498195067533</v>
       </c>
       <c r="L26" t="n">
-        <v>1.801616311162282</v>
+        <v>0.8680432437256431</v>
       </c>
       <c r="M26" t="n">
-        <v>0.454868501186124</v>
+        <v>0.4691812213564704</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01811204507319</v>
+        <v>1.019269791059707</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4742331949892222</v>
+        <v>0.4891552372886356</v>
       </c>
       <c r="P26" t="n">
-        <v>133.1509876407372</v>
+        <v>133.0270647427527</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3779162571703</v>
+        <v>212.2539933591857</v>
       </c>
     </row>
   </sheetData>
